--- a/app/Licenciatura_em_Linguistica_Pos_Laboral.xlsx
+++ b/app/Licenciatura_em_Linguistica_Pos_Laboral.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="269">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -197,9 +197,6 @@
     <t>Chilela Chembene</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
     <t>ClemÊncia Paulo Quinica</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -287,9 +281,6 @@
     <t>Ermerlinda Luis Chissico</t>
   </si>
   <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
     <t>110101324069B</t>
   </si>
   <si>
@@ -311,9 +302,6 @@
     <t>Fernando Sumbane</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>Viúvo</t>
   </si>
   <si>
@@ -341,9 +329,6 @@
     <t>Carla Nilza Bucuane</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110201831347C</t>
   </si>
   <si>
@@ -389,9 +374,6 @@
     <t>Joana Lita Ubisse Nguenha</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>110100356810N</t>
   </si>
   <si>
@@ -665,9 +647,6 @@
     <t>Sofia Mafalda</t>
   </si>
   <si>
-    <t>Distrito Municipal Katembe</t>
-  </si>
-  <si>
     <t>110102761148N</t>
   </si>
   <si>
@@ -758,9 +737,6 @@
     <t>Lucia Regina Pureleque</t>
   </si>
   <si>
-    <t>Cidade de Nampula</t>
-  </si>
-  <si>
     <t>Talao de Carta de Conducao</t>
   </si>
   <si>
@@ -807,9 +783,6 @@
   </si>
   <si>
     <t>Rosa Armando Manhica</t>
-  </si>
-  <si>
-    <t>Distrito de Namaacha</t>
   </si>
   <si>
     <t>110300183369L</t>
@@ -2141,7 +2114,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2157,7 +2130,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2173,7 +2146,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2189,7 +2162,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2205,7 +2178,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2220,9 +2193,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>113</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2230,7 +2201,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2241,7 +2212,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2250,7 +2221,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2262,7 +2233,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2270,7 +2241,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2366,7 +2337,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2409,7 +2380,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2736,7 +2707,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2752,7 +2723,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2768,7 +2739,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2784,7 +2755,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2800,7 +2771,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2815,9 +2786,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2825,7 +2794,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2836,7 +2805,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2845,7 +2814,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2857,7 +2826,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2865,7 +2834,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2961,7 +2930,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3004,7 +2973,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3331,7 +3300,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3347,7 +3316,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3363,7 +3332,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3379,7 +3348,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3395,7 +3364,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3410,9 +3379,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>113</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3420,7 +3387,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3431,7 +3398,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3440,7 +3407,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3452,7 +3419,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3460,7 +3427,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3556,7 +3523,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3599,7 +3566,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3926,7 +3893,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3942,7 +3909,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3958,7 +3925,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3974,7 +3941,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3990,7 +3957,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4005,9 +3972,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>97</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4015,7 +3980,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4026,7 +3991,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4035,7 +4000,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4047,7 +4012,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4055,7 +4020,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4151,7 +4116,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4194,7 +4159,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4521,7 +4486,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4537,7 +4502,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4553,7 +4518,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4569,7 +4534,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4585,7 +4550,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4600,9 +4565,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>113</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4610,7 +4573,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4621,7 +4584,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4630,7 +4593,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4642,7 +4605,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4650,7 +4613,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4746,7 +4709,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4789,7 +4752,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5116,7 +5079,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5132,7 +5095,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5148,7 +5111,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5164,7 +5127,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5180,7 +5143,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5195,9 +5158,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>113</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5205,7 +5166,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5216,7 +5177,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5225,7 +5186,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5237,7 +5198,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5245,7 +5206,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5341,7 +5302,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5384,7 +5345,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5711,7 +5672,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5727,7 +5688,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5743,7 +5704,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5759,7 +5720,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5775,7 +5736,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5790,9 +5751,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5800,7 +5759,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5811,7 +5770,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5820,7 +5779,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5832,7 +5791,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5840,7 +5799,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5936,7 +5895,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5979,7 +5938,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6306,7 +6265,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6322,7 +6281,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6338,7 +6297,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6354,7 +6313,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6370,7 +6329,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6385,9 +6344,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>87</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6395,7 +6352,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6406,7 +6363,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6415,7 +6372,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6427,7 +6384,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6435,7 +6392,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6531,7 +6488,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6574,7 +6531,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6901,7 +6858,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6917,7 +6874,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6933,7 +6890,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6949,7 +6906,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6965,7 +6922,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6980,9 +6937,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6990,7 +6945,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7001,7 +6956,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7010,7 +6965,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7022,7 +6977,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7030,7 +6985,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7126,7 +7081,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7169,7 +7124,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7496,7 +7451,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7512,7 +7467,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7528,7 +7483,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7544,7 +7499,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7560,7 +7515,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7575,9 +7530,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>113</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7585,7 +7538,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7596,7 +7549,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7605,7 +7558,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7617,7 +7570,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7625,7 +7578,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7721,7 +7674,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7764,7 +7717,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8170,9 +8123,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8180,7 +8131,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8191,7 +8142,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8200,7 +8151,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8212,7 +8163,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8220,7 +8171,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8316,7 +8267,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8359,7 +8310,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8686,7 +8637,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8702,7 +8653,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8718,7 +8669,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8734,7 +8685,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8750,7 +8701,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8765,9 +8716,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8775,7 +8724,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8786,7 +8735,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8795,7 +8744,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8807,7 +8756,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8815,7 +8764,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8911,7 +8860,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8954,7 +8903,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9281,7 +9230,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9297,7 +9246,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9313,7 +9262,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9329,7 +9278,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9345,7 +9294,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9360,9 +9309,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>205</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9370,7 +9317,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9381,7 +9328,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9390,7 +9337,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9402,7 +9349,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9410,7 +9357,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9506,7 +9453,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9549,7 +9496,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9876,7 +9823,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9892,7 +9839,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9908,7 +9855,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9924,7 +9871,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9940,7 +9887,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9955,9 +9902,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>87</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9965,7 +9910,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9976,7 +9921,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9985,7 +9930,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9997,7 +9942,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10005,7 +9950,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10101,7 +10046,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10144,7 +10089,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10471,7 +10416,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10487,7 +10432,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10503,7 +10448,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10519,7 +10464,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10535,7 +10480,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10550,9 +10495,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10560,7 +10503,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10571,7 +10514,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10580,7 +10523,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10592,7 +10535,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10696,7 +10639,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10739,7 +10682,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11066,7 +11009,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11082,7 +11025,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11098,7 +11041,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11114,7 +11057,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11130,7 +11073,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11145,9 +11088,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>97</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11155,7 +11096,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11166,7 +11107,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11175,7 +11116,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11187,7 +11128,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11195,7 +11136,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11291,7 +11232,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11334,7 +11275,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11661,7 +11602,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11677,7 +11618,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11868,7 +11809,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12234,7 +12175,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12250,7 +12191,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12266,7 +12207,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12282,7 +12223,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12298,7 +12239,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12313,9 +12254,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>236</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12323,7 +12262,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12334,7 +12273,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12343,7 +12282,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12355,7 +12294,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12459,7 +12398,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12502,7 +12441,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12829,7 +12768,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12845,7 +12784,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12861,7 +12800,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12877,7 +12816,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12893,7 +12832,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12908,9 +12847,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>97</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12918,7 +12855,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12929,7 +12866,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12938,7 +12875,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12950,7 +12887,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12958,7 +12895,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13054,7 +12991,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13097,7 +13034,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13424,7 +13361,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13440,7 +13377,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13456,7 +13393,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13472,7 +13409,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13488,7 +13425,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13503,9 +13440,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>253</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13513,7 +13448,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13524,7 +13459,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13533,7 +13468,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13545,7 +13480,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13553,7 +13488,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13649,7 +13584,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13692,7 +13627,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14019,7 +13954,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14035,7 +13970,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14051,7 +13986,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14067,7 +14002,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14083,7 +14018,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14098,9 +14033,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>113</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14108,7 +14041,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14119,7 +14052,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14128,7 +14061,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14140,7 +14073,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14148,7 +14081,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14244,7 +14177,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14287,7 +14220,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14614,7 +14547,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14630,7 +14563,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14646,7 +14579,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14662,7 +14595,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14678,7 +14611,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14693,9 +14626,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14703,7 +14634,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14714,7 +14645,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14723,7 +14654,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14735,7 +14666,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14743,7 +14674,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14839,7 +14770,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14882,7 +14813,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15209,7 +15140,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15225,7 +15156,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15241,7 +15172,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15257,7 +15188,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15273,7 +15204,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15288,9 +15219,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>113</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15298,7 +15227,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15309,7 +15238,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15318,7 +15247,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15330,7 +15259,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15338,7 +15267,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15434,7 +15363,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15477,7 +15406,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15804,7 +15733,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15820,7 +15749,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15836,7 +15765,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15852,7 +15781,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15868,7 +15797,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15883,9 +15812,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15893,7 +15820,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15904,7 +15831,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15913,7 +15840,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15925,7 +15852,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15933,7 +15860,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16029,7 +15956,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16072,7 +15999,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16455,7 +16382,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16471,7 +16398,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16487,7 +16414,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16503,7 +16430,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16519,7 +16446,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16534,9 +16461,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16544,7 +16469,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16555,7 +16480,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16564,7 +16489,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16576,7 +16501,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16584,7 +16509,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16680,7 +16605,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16723,7 +16648,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17050,7 +16975,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17066,7 +16991,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17082,7 +17007,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17098,7 +17023,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17114,7 +17039,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17129,9 +17054,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17139,7 +17062,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17150,7 +17073,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17159,7 +17082,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17171,7 +17094,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17179,7 +17102,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17275,7 +17198,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17318,7 +17241,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17645,7 +17568,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17661,7 +17584,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17677,7 +17600,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17693,7 +17616,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17722,9 +17645,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>87</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17732,7 +17653,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17743,7 +17664,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17752,7 +17673,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17764,7 +17685,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17772,7 +17693,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17868,7 +17789,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17911,7 +17832,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18238,7 +18159,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18254,7 +18175,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18270,7 +18191,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18286,7 +18207,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18302,7 +18223,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18317,9 +18238,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>97</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18327,7 +18246,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18338,7 +18257,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18347,7 +18266,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18359,7 +18278,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18367,7 +18286,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18463,7 +18382,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18506,7 +18425,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18833,7 +18752,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18849,7 +18768,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18865,7 +18784,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18881,7 +18800,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18897,7 +18816,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18912,9 +18831,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18922,7 +18839,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18933,7 +18850,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18942,7 +18859,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18954,7 +18871,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18962,7 +18879,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19058,7 +18975,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19101,7 +19018,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19428,7 +19345,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19444,7 +19361,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19460,7 +19377,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19476,7 +19393,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19492,7 +19409,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19507,9 +19424,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>113</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19517,7 +19432,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19528,7 +19443,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19537,7 +19452,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19549,7 +19464,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19557,7 +19472,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19653,7 +19568,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19696,7 +19611,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
